--- a/public/template/template_krs.xlsx
+++ b/public/template/template_krs.xlsx
@@ -577,7 +577,7 @@
     <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -630,13 +630,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -781,6 +774,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Rockwell"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
@@ -788,24 +787,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Rockwell"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Rockwell"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Rockwell"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -813,6 +794,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Rockwell"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Rockwell"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1162,152 +1155,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1321,18 +1314,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1346,9 +1333,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1716,13 +1700,13 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1730,865 +1714,865 @@
       <c r="A2" s="4">
         <v>9999999993</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="11"/>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" customHeight="1" spans="1:12">
       <c r="A3" s="4">
         <v>9999999993</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="9">
         <v>3</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="9">
         <v>90</v>
       </c>
-      <c r="L3" s="11"/>
+      <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="4">
         <v>9999999993</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="9">
         <v>2</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="9">
         <v>80</v>
       </c>
-      <c r="L4" s="11"/>
+      <c r="L4" s="9"/>
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="4">
         <v>9999999993</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="9">
         <v>1</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="9">
         <v>70</v>
       </c>
-      <c r="L5" s="11"/>
+      <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="4">
         <v>9999999993</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="9">
         <v>0</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="9">
         <v>60</v>
       </c>
-      <c r="L6" s="11"/>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="4">
         <v>9999999993</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="9">
         <v>4</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="9">
         <v>100</v>
       </c>
-      <c r="L7" s="11"/>
+      <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="8">
+      <c r="A8" s="4">
         <v>9999999999</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="11"/>
+      <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="8">
+      <c r="A9" s="4">
         <v>9999999999</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="9">
         <v>3</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="9">
         <v>90</v>
       </c>
-      <c r="L9" s="11"/>
+      <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="8">
+      <c r="A10" s="4">
         <v>9999999998</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="9">
         <v>2</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="9">
         <v>80</v>
       </c>
-      <c r="L10" s="11"/>
+      <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="8">
+      <c r="A11" s="4">
         <v>9999999998</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="9">
         <v>1</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="9">
         <v>70</v>
       </c>
-      <c r="L11" s="11"/>
+      <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="8">
+      <c r="A12" s="4">
         <v>9999999998</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="9">
         <v>0</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="9">
         <v>60</v>
       </c>
-      <c r="L12" s="11"/>
+      <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="8">
+      <c r="A13" s="4">
         <v>9999999998</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="9">
         <v>4</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="9">
         <v>100</v>
       </c>
-      <c r="L13" s="11"/>
+      <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="10">
+      <c r="A14" s="8">
         <v>9999999991</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="13" t="s">
+      <c r="J14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="11"/>
+      <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="10">
+      <c r="A15" s="8">
         <v>9999999991</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="9">
         <v>3</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="9">
         <v>90</v>
       </c>
-      <c r="L15" s="11"/>
+      <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="10">
+      <c r="A16" s="8">
         <v>9999999991</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="9">
         <v>2</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="9">
         <v>80</v>
       </c>
-      <c r="L16" s="11"/>
+      <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="10">
+      <c r="A17" s="8">
         <v>9999999991</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="9">
         <v>1</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="9">
         <v>70</v>
       </c>
-      <c r="L17" s="11"/>
+      <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="10">
+      <c r="A18" s="8">
         <v>9999999991</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="9">
         <v>0</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="9">
         <v>60</v>
       </c>
-      <c r="L18" s="11"/>
+      <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="10">
+      <c r="A19" s="8">
         <v>9999999991</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="9">
         <v>4</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="9">
         <v>100</v>
       </c>
-      <c r="L19" s="11"/>
+      <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="11">
+      <c r="A20" s="9">
         <v>9999999992</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="I20" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="J20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="K20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="11"/>
+      <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="11">
+      <c r="A21" s="9">
         <v>9999999992</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="I21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="9">
         <v>3</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K21" s="9">
         <v>90</v>
       </c>
-      <c r="L21" s="11"/>
+      <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="11">
+      <c r="A22" s="9">
         <v>9999999992</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="14" t="s">
+      <c r="I22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="9">
         <v>2</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K22" s="9">
         <v>80</v>
       </c>
-      <c r="L22" s="11"/>
+      <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="11">
+      <c r="A23" s="9">
         <v>9999999992</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="14" t="s">
+      <c r="I23" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="9">
         <v>1</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K23" s="9">
         <v>70</v>
       </c>
-      <c r="L23" s="11"/>
+      <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="11">
+      <c r="A24" s="9">
         <v>9999999992</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="14" t="s">
+      <c r="I24" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="9">
         <v>0</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="9">
         <v>60</v>
       </c>
-      <c r="L24" s="11"/>
+      <c r="L24" s="9"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="11">
+      <c r="A25" s="9">
         <v>9999999992</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="14" t="s">
+      <c r="I25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="9">
         <v>4</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K25" s="9">
         <v>100</v>
       </c>
-      <c r="L25" s="11"/>
+      <c r="L25" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
